--- a/DataBase/NameDB.xlsx
+++ b/DataBase/NameDB.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12647" activeTab="1"/>
@@ -2658,7 +2658,7 @@
   <dimension ref="A1:AF718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.7" x14ac:dyDescent="0.95"/>
@@ -21847,775 +21847,792 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A3:P459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.7" x14ac:dyDescent="0.95"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" customWidth="1"/>
+    <col min="1" max="1" width="12.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.95">
+      <c r="A3" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B3" s="1">
         <v>80</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C3" s="1">
         <v>100</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D3" s="1">
         <v>123</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E3" s="1">
         <v>122</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F3" s="1">
         <v>120</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G3" s="1">
         <v>80</v>
       </c>
-      <c r="H1" s="1">
-        <f t="shared" ref="H1:H28" si="0">SUM(B1:G1)</f>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H6" si="0">SUM(B3:G3)</f>
         <v>625</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A2" s="1" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.95">
+      <c r="A6" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B6" s="1">
         <v>78</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C6" s="1">
         <v>130</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D6" s="1">
         <v>111</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E6" s="1">
         <v>130</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F6" s="1">
         <v>85</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G6" s="1">
         <v>100</v>
       </c>
-      <c r="H2" s="1">
-        <f t="shared" si="0"/>
+      <c r="H6" s="1">
+        <f>SUM(B6:G6)</f>
         <v>634</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A3" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="B3" s="1">
+      <c r="J6" s="1">
         <v>78</v>
       </c>
-      <c r="C3" s="1">
+      <c r="K6" s="1">
         <v>104</v>
       </c>
-      <c r="D3" s="1">
+      <c r="L6" s="1">
         <v>78</v>
       </c>
-      <c r="E3" s="1">
+      <c r="M6" s="1">
         <v>159</v>
       </c>
-      <c r="F3" s="1">
+      <c r="N6" s="1">
         <v>115</v>
       </c>
-      <c r="G3" s="1">
+      <c r="O6" s="1">
         <v>100</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" si="0"/>
+      <c r="P6" s="1">
+        <f>SUM(J6:O6)</f>
         <v>634</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A4" s="1" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.95">
+      <c r="A9" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B9" s="1">
         <v>79</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C9" s="1">
         <v>103</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D9" s="1">
         <v>120</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E9" s="1">
         <v>135</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F9" s="1">
         <v>115</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G9" s="1">
         <v>78</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
+      <c r="H9" s="1">
+        <f>SUM(B9:G9)</f>
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A5" s="1" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.95">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A65" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B65" s="1">
         <v>55</v>
       </c>
-      <c r="C5" s="1">
-        <v>50</v>
-      </c>
-      <c r="D5" s="1">
-        <v>65</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C65" s="1">
+        <v>50</v>
+      </c>
+      <c r="D65" s="1">
+        <v>65</v>
+      </c>
+      <c r="E65" s="1">
         <v>175</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F65" s="1">
         <v>95</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G65" s="1">
         <v>150</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" si="0"/>
+      <c r="H65" s="1">
+        <f>SUM(B65:G65)</f>
         <v>590</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A6" s="1" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A94" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B6" s="1">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1">
-        <v>65</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="B94" s="1">
+        <v>60</v>
+      </c>
+      <c r="C94" s="1">
+        <v>65</v>
+      </c>
+      <c r="D94" s="1">
         <v>80</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E94" s="1">
         <v>170</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F94" s="1">
         <v>95</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G94" s="1">
         <v>130</v>
       </c>
-      <c r="H6" s="1">
-        <f t="shared" si="0"/>
+      <c r="H94" s="1">
+        <f>SUM(B94:G94)</f>
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A7" s="1" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A115" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B115" s="1">
         <v>105</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C115" s="1">
         <v>125</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D115" s="1">
         <v>100</v>
       </c>
-      <c r="E7" s="1">
-        <v>60</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E115" s="1">
+        <v>60</v>
+      </c>
+      <c r="F115" s="1">
         <v>100</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G115" s="1">
         <v>100</v>
       </c>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
+      <c r="H115" s="1">
+        <f>SUM(B115:G115)</f>
         <v>590</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A8" s="1" t="s">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A127" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B8" s="1">
-        <v>65</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B127" s="1">
+        <v>65</v>
+      </c>
+      <c r="C127" s="1">
         <v>155</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D127" s="1">
         <v>120</v>
       </c>
-      <c r="E8" s="1">
-        <v>65</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E127" s="1">
+        <v>65</v>
+      </c>
+      <c r="F127" s="1">
         <v>90</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G127" s="1">
         <v>105</v>
       </c>
-      <c r="H8" s="1">
-        <f t="shared" si="0"/>
+      <c r="H127" s="1">
+        <f>SUM(B127:G127)</f>
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A9" s="1" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A130" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B130" s="1">
         <v>95</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C130" s="1">
         <v>155</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D130" s="1">
         <v>109</v>
       </c>
-      <c r="E9" s="1">
-        <v>70</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E130" s="1">
+        <v>70</v>
+      </c>
+      <c r="F130" s="1">
         <v>130</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G130" s="1">
         <v>81</v>
       </c>
-      <c r="H9" s="1">
-        <f t="shared" si="0"/>
+      <c r="H130" s="1">
+        <f>SUM(B130:G130)</f>
         <v>640</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A10" s="1" t="s">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A142" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B142" s="1">
         <v>80</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C142" s="1">
         <v>135</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D142" s="1">
         <v>85</v>
       </c>
-      <c r="E10" s="1">
-        <v>70</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E142" s="1">
+        <v>70</v>
+      </c>
+      <c r="F142" s="1">
         <v>95</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G142" s="1">
         <v>150</v>
       </c>
-      <c r="H10" s="1">
-        <f t="shared" si="0"/>
+      <c r="H142" s="1">
+        <f>SUM(B142:G142)</f>
         <v>615</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A11" s="1" t="s">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.95">
+      <c r="A150" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B150" s="1">
         <v>106</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C150" s="1">
         <v>190</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D150" s="1">
         <v>100</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E150" s="1">
         <v>154</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F150" s="1">
         <v>100</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G150" s="1">
         <v>130</v>
       </c>
-      <c r="H11" s="1">
-        <f t="shared" si="0"/>
+      <c r="H150" s="1">
+        <f>SUM(B150:G150)</f>
         <v>780</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A12" s="1" t="s">
+      <c r="I150" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B12" s="1">
+      <c r="J150" s="1">
         <v>106</v>
       </c>
-      <c r="C12" s="1">
+      <c r="K150" s="1">
         <v>150</v>
       </c>
-      <c r="D12" s="1">
-        <v>70</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="L150" s="1">
+        <v>70</v>
+      </c>
+      <c r="M150" s="1">
         <v>194</v>
       </c>
-      <c r="F12" s="1">
+      <c r="N150" s="1">
         <v>120</v>
       </c>
-      <c r="G12" s="1">
+      <c r="O150" s="1">
         <v>140</v>
       </c>
-      <c r="H12" s="1">
-        <f t="shared" si="0"/>
+      <c r="P150" s="1">
+        <f>SUM(J150:O150)</f>
         <v>780</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A13" s="1" t="s">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A181" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B181" s="1">
         <v>90</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C181" s="1">
         <v>95</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D181" s="1">
         <v>105</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E181" s="1">
         <v>165</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F181" s="1">
         <v>110</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G181" s="1">
         <v>45</v>
       </c>
-      <c r="H13" s="1">
-        <f t="shared" si="0"/>
+      <c r="H181" s="1">
+        <f>SUM(B181:G181)</f>
         <v>610</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A14" s="1" t="s">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A212" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B14" s="1">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B212" s="1">
+        <v>70</v>
+      </c>
+      <c r="C212" s="1">
         <v>150</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D212" s="1">
         <v>140</v>
       </c>
-      <c r="E14" s="1">
-        <v>65</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E212" s="1">
+        <v>65</v>
+      </c>
+      <c r="F212" s="1">
         <v>100</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G212" s="1">
         <v>75</v>
       </c>
-      <c r="H14" s="1">
-        <f t="shared" si="0"/>
+      <c r="H212" s="1">
+        <f>SUM(B212:G212)</f>
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A15" s="1" t="s">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A214" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B214" s="1">
         <v>80</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C214" s="1">
         <v>185</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D214" s="1">
         <v>115</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E214" s="1">
         <v>40</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F214" s="1">
         <v>105</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G214" s="1">
         <v>75</v>
       </c>
-      <c r="H15" s="1">
-        <f t="shared" si="0"/>
+      <c r="H214" s="1">
+        <f>SUM(B214:G214)</f>
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A16" s="1" t="s">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A229" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B229" s="1">
         <v>75</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C229" s="1">
         <v>90</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D229" s="1">
         <v>90</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E229" s="1">
         <v>140</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F229" s="1">
         <v>90</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G229" s="1">
         <v>115</v>
       </c>
-      <c r="H16" s="1">
-        <f t="shared" si="0"/>
+      <c r="H229" s="1">
+        <f t="shared" ref="H229" si="1">SUM(B229:G229)</f>
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A17" s="1" t="s">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A248" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B248" s="1">
         <v>100</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C248" s="1">
         <v>164</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D248" s="1">
         <v>150</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E248" s="1">
         <v>95</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F248" s="1">
         <v>120</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G248" s="1">
         <v>71</v>
       </c>
-      <c r="H17" s="1">
-        <f t="shared" si="0"/>
+      <c r="H248" s="1">
+        <f>SUM(B248:G248)</f>
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A18" s="1" t="s">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A257" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B257" s="1">
         <v>80</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C257" s="1">
         <v>160</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D257" s="1">
         <v>80</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E257" s="1">
         <v>130</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F257" s="1">
         <v>80</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G257" s="1">
         <v>100</v>
       </c>
-      <c r="H18" s="1">
-        <f t="shared" si="0"/>
+      <c r="H257" s="1">
+        <f>SUM(B257:G257)</f>
         <v>630</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A19" s="1" t="s">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A282" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B282" s="1">
         <v>68</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C282" s="1">
         <v>85</v>
       </c>
-      <c r="D19" s="1">
-        <v>65</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D282" s="1">
+        <v>65</v>
+      </c>
+      <c r="E282" s="1">
         <v>165</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F282" s="1">
         <v>135</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G282" s="1">
         <v>100</v>
       </c>
-      <c r="H19" s="1">
-        <f t="shared" si="0"/>
+      <c r="H282" s="1">
+        <f>SUM(B282:G282)</f>
         <v>618</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A20" s="1" t="s">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A303" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B20" s="1">
-        <v>50</v>
-      </c>
-      <c r="C20" s="1">
+      <c r="B303" s="1">
+        <v>50</v>
+      </c>
+      <c r="C303" s="1">
         <v>105</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D303" s="1">
         <v>125</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E303" s="1">
         <v>55</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F303" s="1">
         <v>95</v>
       </c>
-      <c r="G20" s="1">
-        <v>50</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="0"/>
+      <c r="G303" s="1">
+        <v>50</v>
+      </c>
+      <c r="H303" s="1">
+        <f>SUM(B303:G303)</f>
         <v>480</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A21" s="1" t="s">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A306" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B21" s="1">
-        <v>70</v>
-      </c>
-      <c r="C21" s="1">
+      <c r="B306" s="1">
+        <v>70</v>
+      </c>
+      <c r="C306" s="1">
         <v>140</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D306" s="1">
         <v>230</v>
       </c>
-      <c r="E21" s="1">
-        <v>60</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="E306" s="1">
+        <v>60</v>
+      </c>
+      <c r="F306" s="1">
         <v>80</v>
       </c>
-      <c r="G21" s="1">
-        <v>50</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="0"/>
+      <c r="G306" s="1">
+        <v>50</v>
+      </c>
+      <c r="H306" s="1">
+        <f>SUM(B306:G306)</f>
         <v>630</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A22" s="1" t="s">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A308" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B22" s="1">
-        <v>60</v>
-      </c>
-      <c r="C22" s="1">
+      <c r="B308" s="1">
+        <v>60</v>
+      </c>
+      <c r="C308" s="1">
         <v>100</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D308" s="1">
         <v>85</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E308" s="1">
         <v>80</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F308" s="1">
         <v>85</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G308" s="1">
         <v>100</v>
       </c>
-      <c r="H22" s="1">
-        <f t="shared" si="0"/>
+      <c r="H308" s="1">
+        <f>SUM(B308:G308)</f>
         <v>510</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A23" s="1" t="s">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A309" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B23" s="1">
-        <v>70</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B309" s="1">
+        <v>70</v>
+      </c>
+      <c r="C309" s="1">
         <v>75</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D309" s="1">
         <v>80</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E309" s="1">
         <v>135</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F309" s="1">
         <v>80</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G309" s="1">
         <v>135</v>
       </c>
-      <c r="H23" s="1">
-        <f t="shared" si="0"/>
+      <c r="H309" s="1">
+        <f t="shared" ref="H309" si="2">SUM(B309:G309)</f>
         <v>575</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A24" s="1" t="s">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A353" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B353" s="1">
         <v>64</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C353" s="1">
         <v>165</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D353" s="1">
         <v>75</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E353" s="1">
         <v>93</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F353" s="1">
         <v>83</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G353" s="1">
         <v>75</v>
       </c>
-      <c r="H24" s="1">
-        <f t="shared" si="0"/>
+      <c r="H353" s="1">
+        <f>SUM(B353:G353)</f>
         <v>555</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A25" s="1" t="s">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A358" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B25" s="1">
-        <v>65</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B358" s="1">
+        <v>65</v>
+      </c>
+      <c r="C358" s="1">
         <v>150</v>
       </c>
-      <c r="D25" s="1">
-        <v>60</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D358" s="1">
+        <v>60</v>
+      </c>
+      <c r="E358" s="1">
         <v>115</v>
       </c>
-      <c r="F25" s="1">
-        <v>60</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="F358" s="1">
+        <v>60</v>
+      </c>
+      <c r="G358" s="1">
         <v>115</v>
       </c>
-      <c r="H25" s="1">
-        <f t="shared" si="0"/>
+      <c r="H358" s="1">
+        <f>SUM(B358:G358)</f>
         <v>565</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A26" s="1" t="s">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A444" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B444" s="1">
         <v>108</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C444" s="1">
         <v>170</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D444" s="1">
         <v>115</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E444" s="1">
         <v>120</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F444" s="1">
         <v>95</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G444" s="1">
         <v>92</v>
       </c>
-      <c r="H26" s="1">
-        <f t="shared" si="0"/>
+      <c r="H444" s="1">
+        <f>SUM(B444:G444)</f>
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A27" s="1" t="s">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A447" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B27" s="1">
-        <v>70</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B447" s="1">
+        <v>70</v>
+      </c>
+      <c r="C447" s="1">
         <v>145</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D447" s="1">
         <v>88</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E447" s="1">
         <v>149</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F447" s="1">
         <v>79</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G447" s="1">
         <v>112</v>
       </c>
-      <c r="H27" s="1">
-        <f t="shared" si="0"/>
+      <c r="H447" s="1">
+        <f t="shared" ref="H447" si="3">SUM(B447:G447)</f>
         <v>643</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.95">
-      <c r="A28" s="1" t="s">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.95">
+      <c r="A459" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B459" s="1">
         <v>90</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C459" s="1">
         <v>132</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D459" s="1">
         <v>105</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E459" s="1">
         <v>132</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F459" s="1">
         <v>105</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G459" s="1">
         <v>30</v>
       </c>
-      <c r="H28" s="1">
-        <f t="shared" si="0"/>
+      <c r="H459" s="1">
+        <f>SUM(B459:G459)</f>
         <v>594</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>